--- a/KẾ TOÁN - THÁI HẰNG/KHO/NHẬP XUẤT TỒN CHỐT HẾT10_6_20.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/NHẬP XUẤT TỒN CHỐT HẾT10_6_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="16575" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="16572" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10_6" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1127,76 +1127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1231,6 +1162,75 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1296,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1331,7 +1331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,47 +1543,47 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:AH4"/>
+      <pane ySplit="8" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="3.33203125" style="6" customWidth="1"/>
     <col min="14" max="14" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="15" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
     <col min="25" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1619,11 +1619,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1659,233 +1659,233 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="80" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="95" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="80" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="96" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="73"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="97" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="80" t="s">
+      <c r="M7" s="74"/>
+      <c r="N7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="84" t="s">
+      <c r="O7" s="63"/>
+      <c r="P7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="80" t="s">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="85" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="V7" s="80" t="s">
+      <c r="U7" s="82"/>
+      <c r="V7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="80"/>
-      <c r="X7" s="86" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="80" t="s">
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="79" t="s">
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="80" t="s">
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="81" t="s">
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="81" t="s">
+      <c r="AG7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="80"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1970,9 +1970,9 @@
       <c r="AE8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="80"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -9550,76 +9550,76 @@
       <c r="C157" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="83">
+      <c r="D157" s="78">
         <f>SUM(D9:D156)-SUM(E9:E156)</f>
         <v>30</v>
       </c>
-      <c r="E157" s="83"/>
-      <c r="F157" s="73">
+      <c r="E157" s="78"/>
+      <c r="F157" s="79">
         <f t="shared" ref="F157" si="6">SUM(F9:F156)-SUM(G9:G156)</f>
         <v>24</v>
       </c>
-      <c r="G157" s="74"/>
-      <c r="H157" s="73">
+      <c r="G157" s="80"/>
+      <c r="H157" s="79">
         <f t="shared" ref="H157" si="7">SUM(H9:H156)-SUM(I9:I156)</f>
         <v>74</v>
       </c>
-      <c r="I157" s="74"/>
-      <c r="J157" s="73">
+      <c r="I157" s="80"/>
+      <c r="J157" s="79">
         <f t="shared" ref="J157" si="8">SUM(J9:J156)-SUM(K9:K156)</f>
         <v>-76</v>
       </c>
-      <c r="K157" s="74"/>
-      <c r="L157" s="73">
+      <c r="K157" s="80"/>
+      <c r="L157" s="79">
         <f t="shared" ref="L157" si="9">SUM(L9:L156)-SUM(M9:M156)</f>
         <v>29</v>
       </c>
-      <c r="M157" s="74"/>
-      <c r="N157" s="73">
+      <c r="M157" s="80"/>
+      <c r="N157" s="79">
         <f t="shared" ref="N157" si="10">SUM(N9:N156)-SUM(O9:O156)</f>
         <v>-76</v>
       </c>
-      <c r="O157" s="74"/>
-      <c r="P157" s="73">
+      <c r="O157" s="80"/>
+      <c r="P157" s="79">
         <f t="shared" ref="P157" si="11">SUM(P9:P156)-SUM(Q9:Q156)</f>
         <v>12</v>
       </c>
-      <c r="Q157" s="74"/>
-      <c r="R157" s="73">
+      <c r="Q157" s="80"/>
+      <c r="R157" s="79">
         <f t="shared" ref="R157" si="12">SUM(R9:R156)-SUM(S9:S156)</f>
         <v>-44</v>
       </c>
-      <c r="S157" s="74"/>
-      <c r="T157" s="73">
+      <c r="S157" s="80"/>
+      <c r="T157" s="79">
         <f t="shared" ref="T157" si="13">SUM(T9:T156)-SUM(U9:U156)</f>
         <v>62</v>
       </c>
-      <c r="U157" s="74"/>
-      <c r="V157" s="73">
+      <c r="U157" s="80"/>
+      <c r="V157" s="79">
         <f t="shared" ref="V157" si="14">SUM(V9:V156)-SUM(W9:W156)</f>
         <v>-19</v>
       </c>
-      <c r="W157" s="74"/>
-      <c r="X157" s="73">
+      <c r="W157" s="80"/>
+      <c r="X157" s="79">
         <f t="shared" ref="X157" si="15">SUM(X9:X156)-SUM(Y9:Y156)</f>
         <v>282</v>
       </c>
-      <c r="Y157" s="74"/>
-      <c r="Z157" s="73">
+      <c r="Y157" s="80"/>
+      <c r="Z157" s="79">
         <f t="shared" ref="Z157" si="16">SUM(Z9:Z156)-SUM(AA9:AA156)</f>
         <v>25</v>
       </c>
-      <c r="AA157" s="74"/>
-      <c r="AB157" s="73">
+      <c r="AA157" s="80"/>
+      <c r="AB157" s="79">
         <f t="shared" ref="AB157" si="17">SUM(AB9:AB156)-SUM(AC9:AC156)</f>
         <v>-93</v>
       </c>
-      <c r="AC157" s="74"/>
-      <c r="AD157" s="73">
+      <c r="AC157" s="80"/>
+      <c r="AD157" s="79">
         <f t="shared" ref="AD157" si="18">SUM(AD9:AD156)-SUM(AE9:AE156)</f>
         <v>88</v>
       </c>
-      <c r="AE157" s="74"/>
+      <c r="AE157" s="80"/>
       <c r="AF157" s="20">
         <f t="shared" ref="AF157" si="19">E157+G157+I157+K157+M157+O157+Q157+S157+U157+W157+Y157+AA157+AC157+AE157</f>
         <v>0</v>
@@ -9636,111 +9636,111 @@
       <c r="C158" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="75">
+      <c r="D158" s="84">
         <f>D157/24</f>
         <v>1.25</v>
       </c>
-      <c r="E158" s="75"/>
-      <c r="F158" s="69">
+      <c r="E158" s="84"/>
+      <c r="F158" s="85">
         <f>F157/12</f>
         <v>2</v>
       </c>
-      <c r="G158" s="69"/>
-      <c r="H158" s="76">
+      <c r="G158" s="85"/>
+      <c r="H158" s="86">
         <f>H157/24</f>
         <v>3.0833333333333335</v>
       </c>
-      <c r="I158" s="76"/>
-      <c r="J158" s="69">
+      <c r="I158" s="86"/>
+      <c r="J158" s="85">
         <f>J157/12</f>
         <v>-6.333333333333333</v>
       </c>
-      <c r="K158" s="69"/>
-      <c r="L158" s="77">
+      <c r="K158" s="85"/>
+      <c r="L158" s="87">
         <f>L157/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="M158" s="77"/>
-      <c r="N158" s="69">
+      <c r="M158" s="87"/>
+      <c r="N158" s="85">
         <f>N157/12</f>
         <v>-6.333333333333333</v>
       </c>
-      <c r="O158" s="69"/>
-      <c r="P158" s="78">
+      <c r="O158" s="85"/>
+      <c r="P158" s="88">
         <f>P157/24</f>
         <v>0.5</v>
       </c>
-      <c r="Q158" s="78"/>
-      <c r="R158" s="69">
+      <c r="Q158" s="88"/>
+      <c r="R158" s="85">
         <f>R157/12</f>
         <v>-3.6666666666666665</v>
       </c>
-      <c r="S158" s="69"/>
-      <c r="T158" s="68">
+      <c r="S158" s="85"/>
+      <c r="T158" s="94">
         <f>T157/24</f>
         <v>2.5833333333333335</v>
       </c>
-      <c r="U158" s="68"/>
-      <c r="V158" s="69">
+      <c r="U158" s="94"/>
+      <c r="V158" s="85">
         <f>V157/12</f>
         <v>-1.5833333333333333</v>
       </c>
-      <c r="W158" s="69"/>
-      <c r="X158" s="70">
+      <c r="W158" s="85"/>
+      <c r="X158" s="95">
         <f>X157/12</f>
         <v>23.5</v>
       </c>
-      <c r="Y158" s="70"/>
-      <c r="Z158" s="69">
+      <c r="Y158" s="95"/>
+      <c r="Z158" s="85">
         <f>Z157/12</f>
         <v>2.0833333333333335</v>
       </c>
-      <c r="AA158" s="69"/>
-      <c r="AB158" s="71">
+      <c r="AA158" s="85"/>
+      <c r="AB158" s="96">
         <f>AB157/24</f>
         <v>-3.875</v>
       </c>
-      <c r="AC158" s="71"/>
-      <c r="AD158" s="72"/>
-      <c r="AE158" s="72"/>
+      <c r="AC158" s="96"/>
+      <c r="AD158" s="97"/>
+      <c r="AE158" s="97"/>
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
       <c r="AH158" s="51"/>
     </row>
     <row r="159" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="63" t="s">
+      <c r="A159" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B159" s="64"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="64"/>
-      <c r="J159" s="64"/>
-      <c r="K159" s="64"/>
-      <c r="L159" s="64"/>
-      <c r="M159" s="64"/>
-      <c r="N159" s="64"/>
-      <c r="O159" s="64"/>
-      <c r="P159" s="64"/>
-      <c r="Q159" s="64"/>
-      <c r="R159" s="64"/>
-      <c r="S159" s="64"/>
-      <c r="T159" s="64"/>
-      <c r="U159" s="64"/>
-      <c r="V159" s="64"/>
-      <c r="W159" s="64"/>
-      <c r="X159" s="64"/>
-      <c r="Y159" s="64"/>
-      <c r="Z159" s="64"/>
-      <c r="AA159" s="64"/>
-      <c r="AB159" s="64"/>
-      <c r="AC159" s="64"/>
-      <c r="AD159" s="64"/>
-      <c r="AE159" s="65"/>
+      <c r="B159" s="90"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="90"/>
+      <c r="I159" s="90"/>
+      <c r="J159" s="90"/>
+      <c r="K159" s="90"/>
+      <c r="L159" s="90"/>
+      <c r="M159" s="90"/>
+      <c r="N159" s="90"/>
+      <c r="O159" s="90"/>
+      <c r="P159" s="90"/>
+      <c r="Q159" s="90"/>
+      <c r="R159" s="90"/>
+      <c r="S159" s="90"/>
+      <c r="T159" s="90"/>
+      <c r="U159" s="90"/>
+      <c r="V159" s="90"/>
+      <c r="W159" s="90"/>
+      <c r="X159" s="90"/>
+      <c r="Y159" s="90"/>
+      <c r="Z159" s="90"/>
+      <c r="AA159" s="90"/>
+      <c r="AB159" s="90"/>
+      <c r="AC159" s="90"/>
+      <c r="AD159" s="90"/>
+      <c r="AE159" s="91"/>
       <c r="AF159" s="52">
         <f>SUM(AF9:AF156)</f>
         <v>3670</v>
@@ -9752,48 +9752,89 @@
       <c r="AH159" s="53"/>
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A160" s="63" t="s">
+      <c r="A160" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="64"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
-      <c r="I160" s="64"/>
-      <c r="J160" s="64"/>
-      <c r="K160" s="64"/>
-      <c r="L160" s="64"/>
-      <c r="M160" s="64"/>
-      <c r="N160" s="64"/>
-      <c r="O160" s="64"/>
-      <c r="P160" s="64"/>
-      <c r="Q160" s="64"/>
-      <c r="R160" s="64"/>
-      <c r="S160" s="64"/>
-      <c r="T160" s="64"/>
-      <c r="U160" s="64"/>
-      <c r="V160" s="64"/>
-      <c r="W160" s="64"/>
-      <c r="X160" s="64"/>
-      <c r="Y160" s="64"/>
-      <c r="Z160" s="64"/>
-      <c r="AA160" s="64"/>
-      <c r="AB160" s="64"/>
-      <c r="AC160" s="64"/>
-      <c r="AD160" s="64"/>
-      <c r="AE160" s="65"/>
-      <c r="AF160" s="66">
+      <c r="B160" s="90"/>
+      <c r="C160" s="90"/>
+      <c r="D160" s="90"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="90"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="90"/>
+      <c r="J160" s="90"/>
+      <c r="K160" s="90"/>
+      <c r="L160" s="90"/>
+      <c r="M160" s="90"/>
+      <c r="N160" s="90"/>
+      <c r="O160" s="90"/>
+      <c r="P160" s="90"/>
+      <c r="Q160" s="90"/>
+      <c r="R160" s="90"/>
+      <c r="S160" s="90"/>
+      <c r="T160" s="90"/>
+      <c r="U160" s="90"/>
+      <c r="V160" s="90"/>
+      <c r="W160" s="90"/>
+      <c r="X160" s="90"/>
+      <c r="Y160" s="90"/>
+      <c r="Z160" s="90"/>
+      <c r="AA160" s="90"/>
+      <c r="AB160" s="90"/>
+      <c r="AC160" s="90"/>
+      <c r="AD160" s="90"/>
+      <c r="AE160" s="91"/>
+      <c r="AF160" s="92">
         <f>AG159-AF159</f>
         <v>318</v>
       </c>
-      <c r="AG160" s="67"/>
+      <c r="AG160" s="93"/>
       <c r="AH160" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A159:AE159"/>
+    <mergeCell ref="A160:AE160"/>
+    <mergeCell ref="AF160:AG160"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="V158:W158"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="Z158:AA158"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AD158:AE158"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AD157:AE157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="P158:Q158"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="R157:S157"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="V157:W157"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="Z157:AA157"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -9810,47 +9851,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB157:AC157"/>
-    <mergeCell ref="AD157:AE157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="L158:M158"/>
-    <mergeCell ref="N158:O158"/>
-    <mergeCell ref="P158:Q158"/>
-    <mergeCell ref="R158:S158"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="R157:S157"/>
-    <mergeCell ref="T157:U157"/>
-    <mergeCell ref="V157:W157"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="Z157:AA157"/>
-    <mergeCell ref="A159:AE159"/>
-    <mergeCell ref="A160:AE160"/>
-    <mergeCell ref="AF160:AG160"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="V158:W158"/>
-    <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="Z158:AA158"/>
-    <mergeCell ref="AB158:AC158"/>
-    <mergeCell ref="AD158:AE158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9865,16 +9865,16 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6"/>
+    <col min="4" max="4" width="8.109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="62" t="s">
         <v>104</v>
@@ -9889,7 +9889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>9</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>10</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>11</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>13</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>15</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>16</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>17</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>18</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>21</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>19</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>22</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="58">
         <f>SUM(B7:B20)</f>
@@ -10174,19 +10174,19 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B6" s="98" t="s">
         <v>105</v>
       </c>
@@ -10194,13 +10194,13 @@
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
     </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.3">
       <c r="C7" s="55"/>
       <c r="D7" s="56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>9</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="53" t="s">
         <v>10</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>11</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="53" t="s">
         <v>12</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>13</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="53" t="s">
         <v>14</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="53" t="s">
         <v>16</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>17</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="53" t="s">
         <v>18</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>21</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="53" t="s">
         <v>19</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="53" t="s">
         <v>20</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="53" t="s">
         <v>22</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="57"/>
       <c r="D22" s="58">
         <v>484</v>
